--- a/計算用.xlsx
+++ b/計算用.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\Desktop\大一上\商管程設\期末報告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\Desktop\大一上\商管程設\期末報告\GitHub\finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -379,78 +379,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <f>STANDARDIZE(A1,A7,A8)</f>
-        <v>1.6510016510024765</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.35</v>
+      </c>
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <f>STANDARDIZE(A2,A7,A8)</f>
-        <v>-0.74385788671540154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.15</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C6" si="0">A2*B2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <f>STANDARDIZE(A3,A7,A8)</f>
-        <v>1.0522867665730069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <f>STANDARDIZE(A4,A7,A8)</f>
-        <v>-1.1248582677159731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <f>STANDARDIZE(A5,A7,A8)</f>
-        <v>-0.41728613157205457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <f>STANDARDIZE(A6,A7,A8)</f>
-        <v>-0.41728613157205457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <f>AVERAGE(A1:A6)</f>
-        <v>51.333333333333336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <f>_xlfn.STDEV.P(A1,A2,A3,A4,A5,A6)</f>
-        <v>36.745370078721784</v>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -464,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/計算用.xlsx
+++ b/計算用.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>上課效益*權重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能上課堂數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43,7 +57,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +82,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -83,7 +115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -97,6 +129,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -381,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -470,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -992,7 +1033,7 @@
         <f t="shared" si="3"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="7">
         <f t="shared" si="4"/>
         <v>0.18000000000000005</v>
       </c>
@@ -1083,7 +1124,7 @@
         <f t="shared" si="3"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="7">
         <f t="shared" si="4"/>
         <v>0.16500000000000004</v>
       </c>
@@ -1174,7 +1215,7 @@
         <f t="shared" si="3"/>
         <v>1.0950000000000002</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="7">
         <f t="shared" si="4"/>
         <v>0.14800000000000005</v>
       </c>
@@ -1265,7 +1306,7 @@
         <f t="shared" si="3"/>
         <v>1.0350000000000001</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="6">
         <f t="shared" si="4"/>
         <v>0.12900000000000006</v>
       </c>
@@ -1356,7 +1397,7 @@
         <f t="shared" si="3"/>
         <v>0.9700000000000002</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="6">
         <f t="shared" si="4"/>
         <v>0.10800000000000005</v>
       </c>
@@ -1447,7 +1488,7 @@
         <f t="shared" si="3"/>
         <v>0.90000000000000013</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="6">
         <f t="shared" si="4"/>
         <v>8.5000000000000062E-2</v>
       </c>
@@ -1803,7 +1844,7 @@
         <f t="shared" si="1"/>
         <v>0.97300000000000031</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="7">
         <f t="shared" si="2"/>
         <v>0.1305</v>
       </c>
@@ -1906,11 +1947,11 @@
         <f t="shared" si="4"/>
         <v>-5.9999999999999942E-2</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="5">
         <f t="shared" si="5"/>
         <v>7.8750000000000028E-2</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="5">
         <f t="shared" si="6"/>
         <v>7.8750000000000028E-2</v>
       </c>
@@ -2171,7 +2212,7 @@
         <f t="shared" si="2"/>
         <v>-0.20849999999999999</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="7">
         <f t="shared" si="3"/>
         <v>0.16000000000000036</v>
       </c>
@@ -2345,7 +2386,7 @@
         <f t="shared" si="18"/>
         <v>-2.6999999999999997</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="5">
         <f t="shared" si="1"/>
         <v>7.000000000000052E-2</v>
       </c>
@@ -3191,6 +3232,83 @@
       <c r="W30">
         <f t="shared" si="19"/>
         <v>-15.140000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0.35</v>
+      </c>
+      <c r="B2" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0.75</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1.125</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/計算用.xlsx
+++ b/計算用.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="上課效益乘權重" sheetId="1" r:id="rId1"/>
+    <sheet name="自己讀邊際效益" sheetId="2" r:id="rId2"/>
+    <sheet name="可能去上課的堂數" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/計算用.xlsx
+++ b/計算用.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="上課效益乘權重" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>上課效益*權重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可能上課堂數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="L3" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="P3" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -579,7 +583,7 @@
         <f>M1*0.25</f>
         <v>1.375</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="6">
         <f>N1*0.05</f>
         <v>0.22500000000000001</v>
       </c>
@@ -669,7 +673,7 @@
         <f t="shared" ref="S2:S30" si="3">M2*0.25</f>
         <v>1.35</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="6">
         <f t="shared" ref="T2:T30" si="4">N2*0.05</f>
         <v>0.22000000000000003</v>
       </c>
@@ -760,7 +764,7 @@
         <f t="shared" si="3"/>
         <v>1.32</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="6">
         <f t="shared" si="4"/>
         <v>0.21300000000000005</v>
       </c>
@@ -851,7 +855,7 @@
         <f t="shared" si="3"/>
         <v>1.2850000000000001</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="5">
         <f t="shared" si="4"/>
         <v>0.20400000000000007</v>
       </c>
@@ -942,7 +946,7 @@
         <f t="shared" si="3"/>
         <v>1.2450000000000001</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="2">
         <f t="shared" si="4"/>
         <v>0.19300000000000006</v>
       </c>
@@ -1033,7 +1037,7 @@
         <f t="shared" si="3"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="2">
         <f t="shared" si="4"/>
         <v>0.18000000000000005</v>
       </c>
@@ -1124,7 +1128,7 @@
         <f t="shared" si="3"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="2">
         <f t="shared" si="4"/>
         <v>0.16500000000000004</v>
       </c>
@@ -1215,7 +1219,7 @@
         <f t="shared" si="3"/>
         <v>1.0950000000000002</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="2">
         <f t="shared" si="4"/>
         <v>0.14800000000000005</v>
       </c>
@@ -1306,7 +1310,7 @@
         <f t="shared" si="3"/>
         <v>1.0350000000000001</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="2">
         <f t="shared" si="4"/>
         <v>0.12900000000000006</v>
       </c>
@@ -1397,7 +1401,7 @@
         <f t="shared" si="3"/>
         <v>0.9700000000000002</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="2">
         <f t="shared" si="4"/>
         <v>0.10800000000000005</v>
       </c>
@@ -1488,7 +1492,7 @@
         <f t="shared" si="3"/>
         <v>0.90000000000000013</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="2">
         <f t="shared" si="4"/>
         <v>8.5000000000000062E-2</v>
       </c>
@@ -1571,7 +1575,7 @@
         <f t="shared" si="1"/>
         <v>1.33</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="7">
         <f t="shared" si="2"/>
         <v>0.33749999999999997</v>
       </c>
@@ -1662,7 +1666,7 @@
         <f t="shared" si="1"/>
         <v>1.2180000000000002</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="7">
         <f t="shared" si="2"/>
         <v>0.27300000000000002</v>
       </c>
@@ -1753,7 +1757,7 @@
         <f t="shared" si="1"/>
         <v>1.0990000000000002</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="5">
         <f t="shared" si="2"/>
         <v>0.20400000000000001</v>
       </c>
@@ -1765,11 +1769,11 @@
         <f t="shared" si="4"/>
         <v>4.0000000000000539E-3</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="7">
         <f t="shared" si="5"/>
         <v>0.30600000000000005</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="7">
         <f t="shared" si="6"/>
         <v>0.30600000000000005</v>
       </c>
@@ -1844,7 +1848,7 @@
         <f t="shared" si="1"/>
         <v>0.97300000000000031</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="2">
         <f t="shared" si="2"/>
         <v>0.1305</v>
       </c>
@@ -1856,11 +1860,11 @@
         <f t="shared" si="4"/>
         <v>-2.6999999999999948E-2</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="5">
         <f t="shared" si="5"/>
         <v>0.19575000000000004</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="2">
         <f t="shared" si="6"/>
         <v>0.19575000000000004</v>
       </c>
@@ -1947,11 +1951,10 @@
         <f t="shared" si="4"/>
         <v>-5.9999999999999942E-2</v>
       </c>
-      <c r="U16" s="5">
-        <f t="shared" si="5"/>
-        <v>7.8750000000000028E-2</v>
-      </c>
-      <c r="V16" s="5">
+      <c r="U16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="2">
         <f t="shared" si="6"/>
         <v>7.8750000000000028E-2</v>
       </c>
@@ -2121,7 +2124,7 @@
         <f t="shared" si="2"/>
         <v>-0.11699999999999998</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="7">
         <f t="shared" si="3"/>
         <v>0.27000000000000035</v>
       </c>
@@ -2212,7 +2215,7 @@
         <f t="shared" si="2"/>
         <v>-0.20849999999999999</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="2">
         <f t="shared" si="3"/>
         <v>0.16000000000000036</v>
       </c>
@@ -2295,7 +2298,7 @@
         <f t="shared" si="18"/>
         <v>-2.0299999999999998</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="6">
         <f t="shared" si="1"/>
         <v>0.23800000000000052</v>
       </c>
@@ -2386,7 +2389,7 @@
         <f t="shared" si="18"/>
         <v>-2.6999999999999997</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="2">
         <f t="shared" si="1"/>
         <v>7.000000000000052E-2</v>
       </c>
@@ -3245,8 +3248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/計算用.xlsx
+++ b/計算用.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\Desktop\大一上\商管程設\期末報告\GitHub\finals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyun-anwang/Desktop/GitHub/finals/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA9BBD4-144F-E342-9409-A3DE7C303F08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上課效益乘權重" sheetId="1" r:id="rId1"/>
     <sheet name="自己讀邊際效益" sheetId="2" r:id="rId2"/>
     <sheet name="可能去上課的堂數" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>上課效益*權重</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,16 +36,12 @@
     <t>可能上課堂數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>ㄅ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,30 +116,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,83 +426,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="7">
         <v>0.35</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="7">
         <f>A1*B1</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="7">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>0.15</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <f t="shared" ref="C2:C6" si="0">A2*B2</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>0.25</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:3">
+      <c r="A4" s="7">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>0.05</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:3">
+      <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:3">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
@@ -512,23 +518,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P3" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="8.7265625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.36328125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.7265625" customWidth="1"/>
+    <col min="1" max="13" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23">
       <c r="A1" s="2">
         <v>6</v>
       </c>
@@ -550,36 +556,36 @@
       <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="3">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4">
         <v>6</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="4">
         <v>5</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="4">
         <v>5.5</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="4">
         <v>4.5</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="4">
         <v>5</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="4">
         <v>5</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="5">
         <f>K1*0.35</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="5">
         <f>L1*0.15</f>
         <v>0.75</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="5">
         <f>M1*0.25</f>
         <v>1.375</v>
       </c>
@@ -587,19 +593,19 @@
         <f>N1*0.05</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="5">
         <f>O1*0.225</f>
         <v>1.125</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="5">
         <f>P1*0.225</f>
         <v>1.125</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <f t="shared" ref="A2:G2" si="0">A1-0.1</f>
         <v>5.9</v>
@@ -628,48 +634,48 @@
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>0.1</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>0.1</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>0.1</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <f>K1-J2</f>
         <v>5.9</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <f>L1-I2</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="4">
         <f>M1-J2</f>
         <v>5.4</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="4">
         <f>N1-H2</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="4">
         <f>O1-I2</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="4">
         <f>P1-I2</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="5">
         <f t="shared" ref="Q2:Q30" si="1">K2*0.35</f>
         <v>2.0649999999999999</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="5">
         <f t="shared" ref="R2:R30" si="2">L2*0.15</f>
         <v>0.73499999999999999</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="5">
         <f t="shared" ref="S2:S30" si="3">M2*0.25</f>
         <v>1.35</v>
       </c>
@@ -677,20 +683,20 @@
         <f t="shared" ref="T2:T30" si="4">N2*0.05</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="5">
         <f t="shared" ref="U2:U30" si="5">O2*0.225</f>
         <v>1.1025</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="5">
         <f t="shared" ref="V2:V30" si="6">P2*0.225</f>
         <v>1.1025</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="7">
         <f>W1-H2</f>
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <f>A2-0.1</f>
         <v>5.8000000000000007</v>
@@ -719,48 +725,48 @@
         <f t="shared" ref="G3:G30" si="11">G2-0.1</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.13</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>0.12</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <f>K2-J3</f>
         <v>5.78</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <f>L2-I3</f>
         <v>4.7700000000000005</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="4">
         <f>M2-J3</f>
         <v>5.28</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="4">
         <f>N2-H3</f>
         <v>4.2600000000000007</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="4">
         <f>O2-I3</f>
         <v>4.7700000000000005</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="4">
         <f>P2-I3</f>
         <v>4.7700000000000005</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="5">
         <f t="shared" si="1"/>
         <v>2.0230000000000001</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="5">
         <f t="shared" si="2"/>
         <v>0.71550000000000002</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="5">
         <f t="shared" si="3"/>
         <v>1.32</v>
       </c>
@@ -768,20 +774,20 @@
         <f t="shared" si="4"/>
         <v>0.21300000000000005</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="5">
         <f t="shared" si="5"/>
         <v>1.07325</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="5">
         <f t="shared" si="6"/>
         <v>1.07325</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="7">
         <f>W2-H3</f>
         <v>3.76</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A30" si="12">A3-0.1</f>
         <v>5.7000000000000011</v>
@@ -810,69 +816,69 @@
         <f t="shared" si="11"/>
         <v>4.7000000000000011</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.18</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.16</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <f t="shared" ref="K4:K30" si="13">K3-J4</f>
         <v>5.6400000000000006</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <f t="shared" ref="L4:L30" si="14">L3-I4</f>
         <v>4.6100000000000003</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="4">
         <f t="shared" ref="M4:M30" si="15">M3-J4</f>
         <v>5.1400000000000006</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="4">
         <f t="shared" ref="N4:N30" si="16">N3-H4</f>
         <v>4.080000000000001</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="4">
         <f t="shared" ref="O4:O30" si="17">O3-I4</f>
         <v>4.6100000000000003</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="4">
         <f t="shared" ref="P4:P30" si="18">P3-I4</f>
         <v>4.6100000000000003</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="5">
         <f t="shared" si="1"/>
         <v>1.974</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="5">
         <f t="shared" si="2"/>
         <v>0.6915</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="5">
         <f t="shared" si="3"/>
         <v>1.2850000000000001</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="8">
         <f t="shared" si="4"/>
         <v>0.20400000000000007</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="5">
         <f t="shared" si="5"/>
         <v>1.03725</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="5">
         <f t="shared" si="6"/>
         <v>1.03725</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="7">
         <f t="shared" ref="W4:W30" si="19">W3-H4</f>
         <v>3.5799999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <f t="shared" si="12"/>
         <v>5.6000000000000014</v>
@@ -901,48 +907,48 @@
         <f t="shared" si="11"/>
         <v>4.6000000000000014</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.22</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.19</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.16</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <f t="shared" si="13"/>
         <v>5.48</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
         <f t="shared" si="14"/>
         <v>4.42</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="4">
         <f t="shared" si="15"/>
         <v>4.9800000000000004</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <f t="shared" si="16"/>
         <v>3.8600000000000008</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="4">
         <f t="shared" si="17"/>
         <v>4.42</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="4">
         <f t="shared" si="18"/>
         <v>4.42</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="5">
         <f t="shared" si="1"/>
         <v>1.9179999999999999</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="5">
         <f t="shared" si="2"/>
         <v>0.66299999999999992</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="5">
         <f t="shared" si="3"/>
         <v>1.2450000000000001</v>
       </c>
@@ -950,20 +956,20 @@
         <f t="shared" si="4"/>
         <v>0.19300000000000006</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="5">
         <f t="shared" si="5"/>
         <v>0.99450000000000005</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="5">
         <f t="shared" si="6"/>
         <v>0.99450000000000005</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="7">
         <f t="shared" si="19"/>
         <v>3.3599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <f t="shared" si="12"/>
         <v>5.5000000000000018</v>
@@ -992,48 +998,48 @@
         <f t="shared" si="11"/>
         <v>4.5000000000000018</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.26</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.22</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.18</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <f t="shared" si="13"/>
         <v>5.3000000000000007</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <f t="shared" si="15"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <f t="shared" si="16"/>
         <v>3.6000000000000005</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="4">
         <f t="shared" si="17"/>
         <v>4.2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4">
         <f t="shared" si="18"/>
         <v>4.2</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="5">
         <f t="shared" si="1"/>
         <v>1.8550000000000002</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="5">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="5">
         <f t="shared" si="3"/>
         <v>1.2000000000000002</v>
       </c>
@@ -1041,20 +1047,20 @@
         <f t="shared" si="4"/>
         <v>0.18000000000000005</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="5">
         <f t="shared" si="5"/>
         <v>0.94500000000000006</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="5">
         <f t="shared" si="6"/>
         <v>0.94500000000000006</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="7">
         <f t="shared" si="19"/>
         <v>3.0999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <f t="shared" si="12"/>
         <v>5.4000000000000021</v>
@@ -1083,48 +1089,48 @@
         <f t="shared" si="11"/>
         <v>4.4000000000000021</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.25</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <f t="shared" si="13"/>
         <v>5.1000000000000005</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
         <f t="shared" si="14"/>
         <v>3.95</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="4">
         <f t="shared" si="15"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="4">
         <f t="shared" si="16"/>
         <v>3.3000000000000007</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="4">
         <f t="shared" si="17"/>
         <v>3.95</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="4">
         <f t="shared" si="18"/>
         <v>3.95</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="5">
         <f t="shared" si="1"/>
         <v>1.7850000000000001</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="5">
         <f t="shared" si="2"/>
         <v>0.59250000000000003</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="5">
         <f t="shared" si="3"/>
         <v>1.1500000000000001</v>
       </c>
@@ -1132,20 +1138,20 @@
         <f t="shared" si="4"/>
         <v>0.16500000000000004</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="5">
         <f t="shared" si="5"/>
         <v>0.88875000000000004</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="5">
         <f t="shared" si="6"/>
         <v>0.88875000000000004</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="7">
         <f t="shared" si="19"/>
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <f t="shared" si="12"/>
         <v>5.3000000000000025</v>
@@ -1174,48 +1180,48 @@
         <f t="shared" si="11"/>
         <v>4.3000000000000025</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.34</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>0.22</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <f t="shared" si="13"/>
         <v>4.8800000000000008</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <f t="shared" si="14"/>
         <v>3.67</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="4">
         <f t="shared" si="15"/>
         <v>4.3800000000000008</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="4">
         <f t="shared" si="16"/>
         <v>2.9600000000000009</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="4">
         <f t="shared" si="17"/>
         <v>3.67</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="4">
         <f t="shared" si="18"/>
         <v>3.67</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="5">
         <f t="shared" si="1"/>
         <v>1.7080000000000002</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="5">
         <f t="shared" si="2"/>
         <v>0.55049999999999999</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="5">
         <f t="shared" si="3"/>
         <v>1.0950000000000002</v>
       </c>
@@ -1223,20 +1229,20 @@
         <f t="shared" si="4"/>
         <v>0.14800000000000005</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="5">
         <f t="shared" si="5"/>
         <v>0.82574999999999998</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="5">
         <f t="shared" si="6"/>
         <v>0.82574999999999998</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="7">
         <f t="shared" si="19"/>
         <v>2.46</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <f t="shared" si="12"/>
         <v>5.2000000000000028</v>
@@ -1265,48 +1271,48 @@
         <f t="shared" si="11"/>
         <v>4.2000000000000028</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.38</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.31</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.24</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <f t="shared" si="13"/>
         <v>4.6400000000000006</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="4">
         <f t="shared" si="14"/>
         <v>3.36</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="4">
         <f t="shared" si="15"/>
         <v>4.1400000000000006</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="4">
         <f t="shared" si="16"/>
         <v>2.580000000000001</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="4">
         <f t="shared" si="17"/>
         <v>3.36</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="4">
         <f t="shared" si="18"/>
         <v>3.36</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="5">
         <f t="shared" si="1"/>
         <v>1.6240000000000001</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="5">
         <f t="shared" si="2"/>
         <v>0.504</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="5">
         <f t="shared" si="3"/>
         <v>1.0350000000000001</v>
       </c>
@@ -1314,20 +1320,20 @@
         <f t="shared" si="4"/>
         <v>0.12900000000000006</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="5">
         <f t="shared" si="5"/>
         <v>0.75600000000000001</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="5">
         <f t="shared" si="6"/>
         <v>0.75600000000000001</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="7">
         <f t="shared" si="19"/>
         <v>2.08</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <f t="shared" si="12"/>
         <v>5.1000000000000032</v>
@@ -1356,48 +1362,48 @@
         <f t="shared" si="11"/>
         <v>4.1000000000000032</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.42</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.34</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.26</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <f t="shared" si="13"/>
         <v>4.3800000000000008</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="4">
         <f t="shared" si="14"/>
         <v>3.02</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="4">
         <f t="shared" si="15"/>
         <v>3.8800000000000008</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="4">
         <f t="shared" si="16"/>
         <v>2.160000000000001</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="4">
         <f t="shared" si="17"/>
         <v>3.02</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="4">
         <f t="shared" si="18"/>
         <v>3.02</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="5">
         <f t="shared" si="1"/>
         <v>1.5330000000000001</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="5">
         <f t="shared" si="2"/>
         <v>0.45299999999999996</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="5">
         <f t="shared" si="3"/>
         <v>0.9700000000000002</v>
       </c>
@@ -1405,20 +1411,20 @@
         <f t="shared" si="4"/>
         <v>0.10800000000000005</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="5">
         <f t="shared" si="5"/>
         <v>0.67949999999999999</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="5">
         <f t="shared" si="6"/>
         <v>0.67949999999999999</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="7">
         <f t="shared" si="19"/>
         <v>1.6600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <f t="shared" si="12"/>
         <v>5.0000000000000036</v>
@@ -1447,48 +1453,48 @@
         <f t="shared" si="11"/>
         <v>4.0000000000000036</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.46</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.37</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <f t="shared" si="13"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="4">
         <f t="shared" si="14"/>
         <v>2.65</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="4">
         <f t="shared" si="15"/>
         <v>3.6000000000000005</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="4">
         <f t="shared" si="16"/>
         <v>1.7000000000000011</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="4">
         <f t="shared" si="17"/>
         <v>2.65</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="4">
         <f t="shared" si="18"/>
         <v>2.65</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="5">
         <f t="shared" si="1"/>
         <v>1.4350000000000001</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="5">
         <f t="shared" si="2"/>
         <v>0.39749999999999996</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="5">
         <f t="shared" si="3"/>
         <v>0.90000000000000013</v>
       </c>
@@ -1496,20 +1502,20 @@
         <f t="shared" si="4"/>
         <v>8.5000000000000062E-2</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="5">
         <f t="shared" si="5"/>
         <v>0.59624999999999995</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="5">
         <f t="shared" si="6"/>
         <v>0.59624999999999995</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="7">
         <f t="shared" si="19"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <f t="shared" si="12"/>
         <v>4.9000000000000039</v>
@@ -1538,69 +1544,69 @@
         <f t="shared" si="11"/>
         <v>3.9000000000000035</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0.5</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>0.4</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>0.3</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <f t="shared" si="13"/>
         <v>3.8000000000000007</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="4">
         <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="4">
         <f t="shared" si="15"/>
         <v>3.3000000000000007</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4">
         <f t="shared" si="16"/>
         <v>1.2000000000000011</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="4">
         <f t="shared" si="17"/>
         <v>2.25</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <f t="shared" si="18"/>
         <v>2.25</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="5">
         <f t="shared" si="1"/>
         <v>1.33</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="9">
         <f t="shared" si="2"/>
         <v>0.33749999999999997</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="5">
         <f t="shared" si="3"/>
         <v>0.82500000000000018</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="7">
         <f t="shared" si="4"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="5">
         <f t="shared" si="5"/>
         <v>0.50624999999999998</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="5">
         <f t="shared" si="6"/>
         <v>0.50624999999999998</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="7">
         <f t="shared" si="19"/>
         <v>0.70000000000000018</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <f t="shared" si="12"/>
         <v>4.8000000000000043</v>
@@ -1629,69 +1635,69 @@
         <f t="shared" si="11"/>
         <v>3.8000000000000034</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.54</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.43</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.32</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <f t="shared" si="13"/>
         <v>3.4800000000000009</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="4">
         <f t="shared" si="14"/>
         <v>1.82</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="4">
         <f t="shared" si="15"/>
         <v>2.9800000000000009</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="4">
         <f t="shared" si="16"/>
         <v>0.66000000000000103</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="4">
         <f t="shared" si="17"/>
         <v>1.82</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="4">
         <f t="shared" si="18"/>
         <v>1.82</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="5">
         <f t="shared" si="1"/>
         <v>1.2180000000000002</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="9">
         <f t="shared" si="2"/>
         <v>0.27300000000000002</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="5">
         <f t="shared" si="3"/>
         <v>0.74500000000000022</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="7">
         <f t="shared" si="4"/>
         <v>3.300000000000005E-2</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="5">
         <f t="shared" si="5"/>
         <v>0.40950000000000003</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="5">
         <f t="shared" si="6"/>
         <v>0.40950000000000003</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="7">
         <f t="shared" si="19"/>
         <v>0.16000000000000014</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23">
       <c r="A14" s="2">
         <f t="shared" si="12"/>
         <v>4.7000000000000046</v>
@@ -1720,69 +1726,69 @@
         <f t="shared" si="11"/>
         <v>3.7000000000000033</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.46</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>0.34</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <f t="shared" si="13"/>
         <v>3.140000000000001</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
         <f t="shared" si="14"/>
         <v>1.36</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="4">
         <f t="shared" si="15"/>
         <v>2.640000000000001</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="4">
         <f t="shared" si="16"/>
         <v>8.000000000000107E-2</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="4">
         <f t="shared" si="17"/>
         <v>1.36</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="4">
         <f t="shared" si="18"/>
         <v>1.36</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="5">
         <f t="shared" si="1"/>
         <v>1.0990000000000002</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="8">
         <f t="shared" si="2"/>
         <v>0.20400000000000001</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="5">
         <f t="shared" si="3"/>
         <v>0.66000000000000025</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="7">
         <f t="shared" si="4"/>
         <v>4.0000000000000539E-3</v>
       </c>
-      <c r="U14" s="7">
-        <f t="shared" si="5"/>
+      <c r="U14" s="9">
+        <f>O14*0.225</f>
         <v>0.30600000000000005</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="9">
         <f t="shared" si="6"/>
         <v>0.30600000000000005</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="7">
         <f t="shared" si="19"/>
         <v>-0.41999999999999982</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <f t="shared" si="12"/>
         <v>4.600000000000005</v>
@@ -1811,40 +1817,40 @@
         <f t="shared" si="11"/>
         <v>3.6000000000000032</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.62</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0.49</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>0.36</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <f t="shared" si="13"/>
         <v>2.7800000000000011</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="4">
         <f t="shared" si="14"/>
         <v>0.87000000000000011</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="4">
         <f t="shared" si="15"/>
         <v>2.2800000000000011</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="4">
         <f t="shared" si="16"/>
         <v>-0.53999999999999893</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="4">
         <f t="shared" si="17"/>
         <v>0.87000000000000011</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="4">
         <f t="shared" si="18"/>
         <v>0.87000000000000011</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="5">
         <f t="shared" si="1"/>
         <v>0.97300000000000031</v>
       </c>
@@ -1852,15 +1858,15 @@
         <f t="shared" si="2"/>
         <v>0.1305</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="5">
         <f t="shared" si="3"/>
         <v>0.57000000000000028</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="7">
         <f t="shared" si="4"/>
         <v>-2.6999999999999948E-2</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="8">
         <f t="shared" si="5"/>
         <v>0.19575000000000004</v>
       </c>
@@ -1868,12 +1874,12 @@
         <f t="shared" si="6"/>
         <v>0.19575000000000004</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="7">
         <f t="shared" si="19"/>
         <v>-1.0399999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <f t="shared" si="12"/>
         <v>4.5000000000000053</v>
@@ -1902,68 +1908,69 @@
         <f t="shared" si="11"/>
         <v>3.5000000000000031</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.66</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.52</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>0.38</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <f t="shared" si="13"/>
         <v>2.4000000000000012</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="4">
         <f t="shared" si="14"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="4">
         <f t="shared" si="15"/>
         <v>1.9000000000000012</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="4">
         <f t="shared" si="16"/>
         <v>-1.1999999999999988</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="4">
         <f t="shared" si="17"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="4">
         <f t="shared" si="18"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="5">
         <f t="shared" si="1"/>
         <v>0.84000000000000041</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="7">
         <f t="shared" si="2"/>
         <v>5.2500000000000012E-2</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="5">
         <f t="shared" si="3"/>
         <v>0.47500000000000031</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="7">
         <f t="shared" si="4"/>
         <v>-5.9999999999999942E-2</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>2</v>
+      <c r="U16" s="2">
+        <f>O16*0.225</f>
+        <v>7.8750000000000028E-2</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="6"/>
         <v>7.8750000000000028E-2</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="7">
         <f t="shared" si="19"/>
         <v>-1.6999999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23">
       <c r="A17" s="2">
         <f t="shared" si="12"/>
         <v>4.4000000000000057</v>
@@ -1992,69 +1999,69 @@
         <f t="shared" si="11"/>
         <v>3.400000000000003</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.7</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>0.4</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <f t="shared" si="13"/>
         <v>2.0000000000000013</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="4">
         <f t="shared" si="14"/>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="4">
         <f t="shared" si="15"/>
         <v>1.5000000000000013</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="4">
         <f t="shared" si="16"/>
         <v>-1.8999999999999988</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="4">
         <f t="shared" si="17"/>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="4">
         <f t="shared" si="18"/>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="5">
         <f t="shared" si="1"/>
         <v>0.7000000000000004</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="7">
         <f t="shared" si="2"/>
         <v>-2.9999999999999992E-2</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="5">
         <f t="shared" si="3"/>
         <v>0.37500000000000033</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="7">
         <f t="shared" si="4"/>
         <v>-9.4999999999999946E-2</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="7">
         <f t="shared" si="5"/>
         <v>-4.4999999999999991E-2</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="7">
         <f t="shared" si="6"/>
         <v>-4.4999999999999991E-2</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="7">
         <f t="shared" si="19"/>
         <v>-2.3999999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23">
       <c r="A18" s="2">
         <f t="shared" si="12"/>
         <v>4.300000000000006</v>
@@ -2083,69 +2090,69 @@
         <f t="shared" si="11"/>
         <v>3.3000000000000029</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.74</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>0.42</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <f t="shared" si="13"/>
         <v>1.5800000000000014</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="4">
         <f t="shared" si="14"/>
         <v>-0.77999999999999992</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="4">
         <f t="shared" si="15"/>
         <v>1.0800000000000014</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="4">
         <f t="shared" si="16"/>
         <v>-2.6399999999999988</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="4">
         <f t="shared" si="17"/>
         <v>-0.77999999999999992</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="4">
         <f t="shared" si="18"/>
         <v>-0.77999999999999992</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="5">
         <f t="shared" si="1"/>
         <v>0.55300000000000049</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="7">
         <f t="shared" si="2"/>
         <v>-0.11699999999999998</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="9">
         <f t="shared" si="3"/>
         <v>0.27000000000000035</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="7">
         <f t="shared" si="4"/>
         <v>-0.13199999999999995</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="7">
         <f t="shared" si="5"/>
         <v>-0.17549999999999999</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="7">
         <f t="shared" si="6"/>
         <v>-0.17549999999999999</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="7">
         <f t="shared" si="19"/>
         <v>-3.1399999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <f t="shared" si="12"/>
         <v>4.2000000000000064</v>
@@ -2174,44 +2181,44 @@
         <f t="shared" si="11"/>
         <v>3.2000000000000028</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.78</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.61</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>0.44</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
         <f t="shared" si="13"/>
         <v>1.1400000000000015</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="4">
         <f t="shared" si="14"/>
         <v>-1.39</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="4">
         <f t="shared" si="15"/>
         <v>0.64000000000000146</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="4">
         <f t="shared" si="16"/>
         <v>-3.419999999999999</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="4">
         <f t="shared" si="17"/>
         <v>-1.39</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="4">
         <f t="shared" si="18"/>
         <v>-1.39</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="5">
         <f t="shared" si="1"/>
         <v>0.39900000000000047</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="7">
         <f t="shared" si="2"/>
         <v>-0.20849999999999999</v>
       </c>
@@ -2219,24 +2226,24 @@
         <f t="shared" si="3"/>
         <v>0.16000000000000036</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="7">
         <f t="shared" si="4"/>
         <v>-0.17099999999999996</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="7">
         <f t="shared" si="5"/>
         <v>-0.31274999999999997</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="7">
         <f t="shared" si="6"/>
         <v>-0.31274999999999997</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="7">
         <f t="shared" si="19"/>
         <v>-3.92</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <f t="shared" si="12"/>
         <v>4.1000000000000068</v>
@@ -2265,36 +2272,36 @@
         <f t="shared" si="11"/>
         <v>3.1000000000000028</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.82</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.64</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>0.46</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
         <f t="shared" si="13"/>
         <v>0.68000000000000149</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="4">
         <f t="shared" si="14"/>
         <v>-2.0299999999999998</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="4">
         <f t="shared" si="15"/>
         <v>0.18000000000000144</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="4">
         <f t="shared" si="16"/>
         <v>-4.2399999999999993</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="4">
         <f t="shared" si="17"/>
         <v>-2.0299999999999998</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="4">
         <f t="shared" si="18"/>
         <v>-2.0299999999999998</v>
       </c>
@@ -2302,32 +2309,32 @@
         <f t="shared" si="1"/>
         <v>0.23800000000000052</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="7">
         <f t="shared" si="2"/>
         <v>-0.30449999999999994</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="7">
         <f t="shared" si="3"/>
         <v>4.5000000000000359E-2</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="7">
         <f t="shared" si="4"/>
         <v>-0.21199999999999997</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="7">
         <f t="shared" si="5"/>
         <v>-0.45674999999999999</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="7">
         <f t="shared" si="6"/>
         <v>-0.45674999999999999</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="7">
         <f t="shared" si="19"/>
         <v>-4.74</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <f t="shared" si="12"/>
         <v>4.0000000000000071</v>
@@ -2356,36 +2363,36 @@
         <f t="shared" si="11"/>
         <v>3.0000000000000027</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.86</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.67</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>0.48</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4">
         <f t="shared" si="13"/>
         <v>0.20000000000000151</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="4">
         <f t="shared" si="14"/>
         <v>-2.6999999999999997</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="4">
         <f t="shared" si="15"/>
         <v>-0.29999999999999855</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="4">
         <f t="shared" si="16"/>
         <v>-5.0999999999999996</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="4">
         <f t="shared" si="17"/>
         <v>-2.6999999999999997</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="4">
         <f t="shared" si="18"/>
         <v>-2.6999999999999997</v>
       </c>
@@ -2393,32 +2400,32 @@
         <f t="shared" si="1"/>
         <v>7.000000000000052E-2</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="7">
         <f t="shared" si="2"/>
         <v>-0.40499999999999997</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="7">
         <f t="shared" si="3"/>
         <v>-7.4999999999999636E-2</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="7">
         <f t="shared" si="4"/>
         <v>-0.255</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="7">
         <f t="shared" si="5"/>
         <v>-0.60749999999999993</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="7">
         <f t="shared" si="6"/>
         <v>-0.60749999999999993</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="7">
         <f t="shared" si="19"/>
         <v>-5.6000000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <f t="shared" si="12"/>
         <v>3.900000000000007</v>
@@ -2447,69 +2454,69 @@
         <f t="shared" si="11"/>
         <v>2.9000000000000026</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.9</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.7</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>0.5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
         <f t="shared" si="13"/>
         <v>-0.29999999999999849</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="4">
         <f t="shared" si="14"/>
         <v>-3.3999999999999995</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="4">
         <f t="shared" si="15"/>
         <v>-0.79999999999999849</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="4">
         <f t="shared" si="16"/>
         <v>-6</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="4">
         <f t="shared" si="17"/>
         <v>-3.3999999999999995</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="4">
         <f t="shared" si="18"/>
         <v>-3.3999999999999995</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="7">
         <f t="shared" si="1"/>
         <v>-0.10499999999999947</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="7">
         <f t="shared" si="2"/>
         <v>-0.5099999999999999</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="7">
         <f t="shared" si="3"/>
         <v>-0.19999999999999962</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="7">
         <f t="shared" si="4"/>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="7">
         <f t="shared" si="5"/>
         <v>-0.7649999999999999</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="7">
         <f t="shared" si="6"/>
         <v>-0.7649999999999999</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="7">
         <f t="shared" si="19"/>
         <v>-6.5000000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <f t="shared" si="12"/>
         <v>3.8000000000000069</v>
@@ -2538,69 +2545,69 @@
         <f t="shared" si="11"/>
         <v>2.8000000000000025</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.94</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.73</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>0.52</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
         <f t="shared" si="13"/>
         <v>-0.81999999999999851</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="4">
         <f t="shared" si="14"/>
         <v>-4.129999999999999</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="4">
         <f t="shared" si="15"/>
         <v>-1.3199999999999985</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="4">
         <f t="shared" si="16"/>
         <v>-6.9399999999999995</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="4">
         <f t="shared" si="17"/>
         <v>-4.129999999999999</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="4">
         <f t="shared" si="18"/>
         <v>-4.129999999999999</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="7">
         <f t="shared" si="1"/>
         <v>-0.28699999999999948</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="7">
         <f t="shared" si="2"/>
         <v>-0.61949999999999983</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="7">
         <f t="shared" si="3"/>
         <v>-0.32999999999999963</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="7">
         <f t="shared" si="4"/>
         <v>-0.34699999999999998</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="7">
         <f t="shared" si="5"/>
         <v>-0.9292499999999998</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="7">
         <f t="shared" si="6"/>
         <v>-0.9292499999999998</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="7">
         <f t="shared" si="19"/>
         <v>-7.4400000000000013</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <f t="shared" si="12"/>
         <v>3.7000000000000068</v>
@@ -2629,69 +2636,69 @@
         <f t="shared" si="11"/>
         <v>2.7000000000000024</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>0.98</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.76</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>0.54</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="4">
         <f t="shared" si="13"/>
         <v>-1.3599999999999985</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="4">
         <f t="shared" si="14"/>
         <v>-4.8899999999999988</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="4">
         <f t="shared" si="15"/>
         <v>-1.8599999999999985</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="4">
         <f t="shared" si="16"/>
         <v>-7.92</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="4">
         <f t="shared" si="17"/>
         <v>-4.8899999999999988</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="4">
         <f t="shared" si="18"/>
         <v>-4.8899999999999988</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="7">
         <f t="shared" si="1"/>
         <v>-0.47599999999999948</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="7">
         <f t="shared" si="2"/>
         <v>-0.73349999999999982</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="7">
         <f t="shared" si="3"/>
         <v>-0.46499999999999964</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="7">
         <f t="shared" si="4"/>
         <v>-0.39600000000000002</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="7">
         <f t="shared" si="5"/>
         <v>-1.1002499999999997</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="7">
         <f t="shared" si="6"/>
         <v>-1.1002499999999997</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="7">
         <f t="shared" si="19"/>
         <v>-8.4200000000000017</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <f t="shared" si="12"/>
         <v>3.6000000000000068</v>
@@ -2720,69 +2727,69 @@
         <f t="shared" si="11"/>
         <v>2.6000000000000023</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>1.02</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>0.79</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
         <f t="shared" si="13"/>
         <v>-1.9199999999999986</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4">
         <f t="shared" si="14"/>
         <v>-5.6799999999999988</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="4">
         <f t="shared" si="15"/>
         <v>-2.4199999999999986</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="4">
         <f t="shared" si="16"/>
         <v>-8.94</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="4">
         <f t="shared" si="17"/>
         <v>-5.6799999999999988</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="4">
         <f t="shared" si="18"/>
         <v>-5.6799999999999988</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="7">
         <f t="shared" si="1"/>
         <v>-0.67199999999999949</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="7">
         <f t="shared" si="2"/>
         <v>-0.85199999999999976</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="7">
         <f t="shared" si="3"/>
         <v>-0.60499999999999965</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="7">
         <f t="shared" si="4"/>
         <v>-0.44700000000000001</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="7">
         <f t="shared" si="5"/>
         <v>-1.2779999999999998</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="7">
         <f t="shared" si="6"/>
         <v>-1.2779999999999998</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="7">
         <f t="shared" si="19"/>
         <v>-9.4400000000000013</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <f t="shared" si="12"/>
         <v>3.5000000000000067</v>
@@ -2811,69 +2818,69 @@
         <f t="shared" si="11"/>
         <v>2.5000000000000022</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>1.06</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>0.82</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="4">
         <f t="shared" si="13"/>
         <v>-2.4999999999999987</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="4">
         <f t="shared" si="14"/>
         <v>-6.4999999999999991</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="4">
         <f t="shared" si="15"/>
         <v>-2.9999999999999987</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="4">
         <f t="shared" si="16"/>
         <v>-10</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="4">
         <f t="shared" si="17"/>
         <v>-6.4999999999999991</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="4">
         <f t="shared" si="18"/>
         <v>-6.4999999999999991</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="7">
         <f t="shared" si="1"/>
         <v>-0.87499999999999944</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="7">
         <f t="shared" si="2"/>
         <v>-0.97499999999999987</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="7">
         <f t="shared" si="3"/>
         <v>-0.74999999999999967</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="7">
         <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="7">
         <f t="shared" si="5"/>
         <v>-1.4624999999999999</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="7">
         <f t="shared" si="6"/>
         <v>-1.4624999999999999</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="7">
         <f t="shared" si="19"/>
         <v>-10.500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <f t="shared" si="12"/>
         <v>3.4000000000000066</v>
@@ -2902,69 +2909,69 @@
         <f t="shared" si="11"/>
         <v>2.4000000000000021</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>0.85</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>0.6</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="4">
         <f t="shared" si="13"/>
         <v>-3.0999999999999988</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="4">
         <f t="shared" si="14"/>
         <v>-7.3499999999999988</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="4">
         <f t="shared" si="15"/>
         <v>-3.5999999999999988</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="4">
         <f t="shared" si="16"/>
         <v>-11.1</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="4">
         <f t="shared" si="17"/>
         <v>-7.3499999999999988</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="4">
         <f t="shared" si="18"/>
         <v>-7.3499999999999988</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="7">
         <f t="shared" si="1"/>
         <v>-1.0849999999999995</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="7">
         <f t="shared" si="2"/>
         <v>-1.1024999999999998</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="7">
         <f t="shared" si="3"/>
         <v>-0.89999999999999969</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="7">
         <f t="shared" si="4"/>
         <v>-0.55500000000000005</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="7">
         <f t="shared" si="5"/>
         <v>-1.6537499999999998</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="7">
         <f t="shared" si="6"/>
         <v>-1.6537499999999998</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="7">
         <f t="shared" si="19"/>
         <v>-11.600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <f t="shared" si="12"/>
         <v>3.3000000000000065</v>
@@ -2993,69 +3000,69 @@
         <f t="shared" si="11"/>
         <v>2.300000000000002</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>0.88</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>0.62</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="4">
         <f t="shared" si="13"/>
         <v>-3.7199999999999989</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="4">
         <f t="shared" si="14"/>
         <v>-8.2299999999999986</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="4">
         <f t="shared" si="15"/>
         <v>-4.2199999999999989</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="4">
         <f t="shared" si="16"/>
         <v>-12.24</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="4">
         <f t="shared" si="17"/>
         <v>-8.2299999999999986</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="4">
         <f t="shared" si="18"/>
         <v>-8.2299999999999986</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="7">
         <f t="shared" si="1"/>
         <v>-1.3019999999999996</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="7">
         <f t="shared" si="2"/>
         <v>-1.2344999999999997</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="7">
         <f t="shared" si="3"/>
         <v>-1.0549999999999997</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="7">
         <f t="shared" si="4"/>
         <v>-0.6120000000000001</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="7">
         <f t="shared" si="5"/>
         <v>-1.8517499999999998</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="7">
         <f t="shared" si="6"/>
         <v>-1.8517499999999998</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="7">
         <f t="shared" si="19"/>
         <v>-12.740000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <f t="shared" si="12"/>
         <v>3.2000000000000064</v>
@@ -3084,69 +3091,69 @@
         <f t="shared" si="11"/>
         <v>2.200000000000002</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>1.18</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>0.91</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>0.64</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="4">
         <f t="shared" si="13"/>
         <v>-4.3599999999999985</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="4">
         <f t="shared" si="14"/>
         <v>-9.1399999999999988</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="4">
         <f t="shared" si="15"/>
         <v>-4.8599999999999985</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="4">
         <f t="shared" si="16"/>
         <v>-13.42</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="4">
         <f t="shared" si="17"/>
         <v>-9.1399999999999988</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="4">
         <f t="shared" si="18"/>
         <v>-9.1399999999999988</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="7">
         <f t="shared" si="1"/>
         <v>-1.5259999999999994</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="7">
         <f t="shared" si="2"/>
         <v>-1.3709999999999998</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="7">
         <f t="shared" si="3"/>
         <v>-1.2149999999999996</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="7">
         <f t="shared" si="4"/>
         <v>-0.67100000000000004</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="7">
         <f t="shared" si="5"/>
         <v>-2.0564999999999998</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="7">
         <f t="shared" si="6"/>
         <v>-2.0564999999999998</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="7">
         <f t="shared" si="19"/>
         <v>-13.920000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <f t="shared" si="12"/>
         <v>3.1000000000000063</v>
@@ -3175,64 +3182,64 @@
         <f t="shared" si="11"/>
         <v>2.1000000000000019</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>1.22</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>0.94</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>0.66</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
         <f t="shared" si="13"/>
         <v>-5.0199999999999987</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="4">
         <f t="shared" si="14"/>
         <v>-10.079999999999998</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="4">
         <f t="shared" si="15"/>
         <v>-5.5199999999999987</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="4">
         <f t="shared" si="16"/>
         <v>-14.64</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="4">
         <f t="shared" si="17"/>
         <v>-10.079999999999998</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="4">
         <f t="shared" si="18"/>
         <v>-10.079999999999998</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="7">
         <f t="shared" si="1"/>
         <v>-1.7569999999999995</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="7">
         <f t="shared" si="2"/>
         <v>-1.5119999999999998</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="7">
         <f t="shared" si="3"/>
         <v>-1.3799999999999997</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="7">
         <f t="shared" si="4"/>
         <v>-0.7320000000000001</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="7">
         <f t="shared" si="5"/>
         <v>-2.2679999999999998</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="7">
         <f t="shared" si="6"/>
         <v>-2.2679999999999998</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="7">
         <f t="shared" si="19"/>
         <v>-15.140000000000002</v>
       </c>
@@ -3245,72 +3252,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="7">
         <v>0.35</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="7">
         <v>0.75</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="7">
         <v>0.5</v>
       </c>
       <c r="B4" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="7">
         <v>0.25</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" s="7">
         <v>1.125</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>0</v>
       </c>
     </row>
